--- a/sigma.xlsx
+++ b/sigma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tugas Kuliah Reza\Semester 7\Proyek Jurnal\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC99208-1732-467B-BA54-9A9FAA6BFBE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39538624-58BB-40E7-A7A6-ECA37F5221B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
     <t>Dekat Jaraknya, Murah Ongkos</t>
   </si>
   <si>
-    <t>Dekat Jaraknya, Biar Sehat</t>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -733,8 +733,8 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D74"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/sigma.xlsx
+++ b/sigma.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Desktop\Tugas Kuliah Reza\Semester 7\Proyek Jurnal\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39538624-58BB-40E7-A7A6-ECA37F5221B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C68771B-AFCF-40C6-B593-64E0B7F62853}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="38">
   <si>
     <t>Lainnya</t>
   </si>
@@ -133,7 +133,7 @@
     <t>Dekat Jaraknya, Murah Ongkos</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Dekat Jaraknya, Biar Sehat</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
           <color rgb="FFF8F9FA"/>
         </left>
         <right style="thin">
-          <color rgb="FF442F65"/>
+          <color rgb="FFF8F9FA"/>
         </right>
         <top style="thin">
           <color rgb="FFF8F9FA"/>
@@ -462,7 +462,7 @@
           <color rgb="FFF8F9FA"/>
         </left>
         <right style="thin">
-          <color rgb="FFF8F9FA"/>
+          <color rgb="FF442F65"/>
         </right>
         <top style="thin">
           <color rgb="FFF8F9FA"/>
@@ -518,12 +518,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:D74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:D78">
   <tableColumns count="4">
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="domisili" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tujuan" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nama_kendaraan" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="alasan" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="domisili" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="tujuan" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nama_kendaraan" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="alasan" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -730,11 +730,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I66" sqref="I66"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B69" sqref="A2:D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1780,6 +1780,62 @@
         <v>20</v>
       </c>
     </row>
+    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
